--- a/biology/Botanique/Jardins_de_Castillon-Plantbessin/Jardins_de_Castillon-Plantbessin.xlsx
+++ b/biology/Botanique/Jardins_de_Castillon-Plantbessin/Jardins_de_Castillon-Plantbessin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Jardins de Castillon-Plantbessin sont un jardin remarquable français, situé à Castillon (Calvados), près de Bayeux.
@@ -512,11 +524,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Sainte-Beuve, agriculteur en Bessin, achète une pépinière en 1974. Il perd de nombreuses plantes lors de l'hiver 1975 et l'été 1976. Lui et son épouse Colette partent visiter des jardins en Angleterre (Sissinghurst, Great Dixter, Hidcote Manor (en), Jardin de Tintinhull (en)) pour proposer à la vente des plantes vivaces qu'ils jugent injustement négligées en France[1].
-Colette Sainte-Beuve commence alors sa collection de géraniums vivaces et participe à la première édition des journées des plantes de Courson en 1982[1].
-Ils réalisent un jardin de démonstration pour montrer aux clients comment présenter ces plantes. C'est le premier jardin, d'inspiration anglaise (Castillon), créé en 1985 par Hubert et Colette Sainte-Beuve. Le second, plus contemporain (Plantbessin), fut conçu à l'aide du graveur et paysagiste parisien François Houtin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Sainte-Beuve, agriculteur en Bessin, achète une pépinière en 1974. Il perd de nombreuses plantes lors de l'hiver 1975 et l'été 1976. Lui et son épouse Colette partent visiter des jardins en Angleterre (Sissinghurst, Great Dixter, Hidcote Manor (en), Jardin de Tintinhull (en)) pour proposer à la vente des plantes vivaces qu'ils jugent injustement négligées en France.
+Colette Sainte-Beuve commence alors sa collection de géraniums vivaces et participe à la première édition des journées des plantes de Courson en 1982.
+Ils réalisent un jardin de démonstration pour montrer aux clients comment présenter ces plantes. C'est le premier jardin, d'inspiration anglaise (Castillon), créé en 1985 par Hubert et Colette Sainte-Beuve. Le second, plus contemporain (Plantbessin), fut conçu à l'aide du graveur et paysagiste parisien François Houtin.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Influences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leurs sources d'inspiration sont les jardinières Penelope Hobhouse et Beth Chatto, les experts pépiniéristes Elizabeth Strangman et Graham Gouch, les jardins anglais de Hidcote Manor (en) et Sissinghurst[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leurs sources d'inspiration sont les jardinières Penelope Hobhouse et Beth Chatto, les experts pépiniéristes Elizabeth Strangman et Graham Gouch, les jardins anglais de Hidcote Manor (en) et Sissinghurst.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier jardin né en 1985, en pente douce orientée au Nord, est une succession de huit chambres ou jardins clos thématiques :
 le Jardin d'eau : autour d'un bassin rectangulaire avec poissons dont une carpe Amour, persicaires, rodgersia, eupatoires ;
@@ -628,10 +646,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Jardins de Castillon ont reçu en 2004 le label «Jardin remarquable» par le Conseil national des parcs et jardins[2].
-Ils ont reçu en 2009 le Prix « Jardin de l'année », décerné par l'Association des journalistes du jardin et de l'horticulture[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Jardins de Castillon ont reçu en 2004 le label «Jardin remarquable» par le Conseil national des parcs et jardins.
+Ils ont reçu en 2009 le Prix « Jardin de l'année », décerné par l'Association des journalistes du jardin et de l'horticulture.
 </t>
         </is>
       </c>
